--- a/BangKeHoach-DoAn1-NHH.xlsx
+++ b/BangKeHoach-DoAn1-NHH.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Kế Hoạch" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>DANH SÁCH CÔNG VIỆC</t>
   </si>
@@ -43,13 +48,7 @@
     <t>Tạo Database</t>
   </si>
   <si>
-    <t xml:space="preserve">Triển khai Database </t>
-  </si>
-  <si>
     <t>24/9/2019</t>
-  </si>
-  <si>
-    <t>Dựng mô hình Database</t>
   </si>
   <si>
     <t>Thiết kế , coder WindowForm</t>
@@ -67,9 +66,6 @@
     <t xml:space="preserve">Hoàn thiện project, đóng gói sản phẩm  </t>
   </si>
   <si>
-    <t>Làm Word và PowPoint báo cáo</t>
-  </si>
-  <si>
     <t>Khảo sát thành phần trong Khách Sạn</t>
   </si>
   <si>
@@ -82,13 +78,22 @@
     <t>Nhận Xét</t>
   </si>
   <si>
-    <t>Đang chậm chỉ hoàng thành thiết kế xong Form</t>
-  </si>
-  <si>
     <t>Kết Nối Database</t>
   </si>
   <si>
     <t xml:space="preserve"> 23/9/2019</t>
+  </si>
+  <si>
+    <t>Làm Word báo cáo</t>
+  </si>
+  <si>
+    <t>Chỉnh sữa hình ảnh, màu sắc</t>
+  </si>
+  <si>
+    <t>hoàn thành</t>
+  </si>
+  <si>
+    <t>Đang chậm chỉ hoàn thành thiết kế xong Form</t>
   </si>
 </sst>
 </file>
@@ -188,12 +193,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,7 +537,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -540,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1001"/>
+  <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -558,15 +563,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -584,15 +589,15 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>14</v>
+      <c r="A2" s="16" t="s">
+        <v>12</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -617,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>2</v>
@@ -631,8 +636,8 @@
       <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>21</v>
+      <c r="H3" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -651,7 +656,7 @@
     </row>
     <row r="4" spans="1:22" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
@@ -677,16 +682,16 @@
     </row>
     <row r="5" spans="1:22" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -708,21 +713,23 @@
     </row>
     <row r="6" spans="1:22" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="5">
-        <v>43739</v>
+        <v>43741</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5">
+        <v>43595</v>
+      </c>
       <c r="H6" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -741,7 +748,7 @@
     </row>
     <row r="7" spans="1:22" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
@@ -773,14 +780,18 @@
         <v>6</v>
       </c>
       <c r="D8" s="5">
-        <v>43740</v>
+        <v>43742</v>
       </c>
       <c r="E8" s="5">
-        <v>43743</v>
+        <v>43745</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="5">
+        <v>43748</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -798,20 +809,24 @@
     </row>
     <row r="9" spans="1:22" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="5">
-        <v>43744</v>
+        <v>43746</v>
       </c>
       <c r="E9" s="5">
-        <v>43751</v>
+        <v>43758</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="5">
+        <v>43749</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -828,13 +843,18 @@
       <c r="V9" s="6"/>
     </row>
     <row r="10" spans="1:22" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>23</v>
+      <c r="B10" s="7" t="s">
+        <v>22</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="C10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5">
+        <v>43759</v>
+      </c>
+      <c r="E10" s="5">
+        <v>43762</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
@@ -855,16 +875,16 @@
     </row>
     <row r="11" spans="1:22" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="5">
-        <v>43752</v>
+        <v>43763</v>
       </c>
       <c r="E11" s="5">
-        <v>43758</v>
+        <v>43766</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -886,16 +906,16 @@
     </row>
     <row r="12" spans="1:22" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="5">
-        <v>43763</v>
+        <v>43767</v>
       </c>
       <c r="E12" s="5">
-        <v>43766</v>
+        <v>43768</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -916,18 +936,10 @@
       <c r="V12" s="6"/>
     </row>
     <row r="13" spans="1:22" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="5">
-        <v>43767</v>
-      </c>
-      <c r="E13" s="5">
-        <v>43768</v>
-      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
@@ -1155,9 +1167,9 @@
     </row>
     <row r="23" spans="1:22" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
@@ -1176,8 +1188,9 @@
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
     </row>
-    <row r="24" spans="1:22" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
+    <row r="24" spans="1:22" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -1223,38 +1236,33 @@
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
     </row>
-    <row r="26" spans="1:22" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-    </row>
-    <row r="27" spans="1:22" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+    </row>
+    <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
@@ -1273,7 +1281,7 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="12"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
@@ -19699,9 +19707,6 @@
     </row>
     <row r="998" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B998" s="1"/>
-      <c r="C998" s="9"/>
-      <c r="D998" s="10"/>
-      <c r="E998" s="10"/>
       <c r="F998" s="10"/>
       <c r="G998" s="10"/>
       <c r="H998" s="11"/>
@@ -19717,7 +19722,6 @@
       <c r="R998" s="11"/>
     </row>
     <row r="999" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B999" s="1"/>
       <c r="F999" s="10"/>
       <c r="G999" s="10"/>
       <c r="H999" s="11"/>
@@ -19747,21 +19751,6 @@
       <c r="Q1000" s="11"/>
       <c r="R1000" s="11"/>
     </row>
-    <row r="1001" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F1001" s="10"/>
-      <c r="G1001" s="10"/>
-      <c r="H1001" s="11"/>
-      <c r="I1001" s="11"/>
-      <c r="J1001" s="11"/>
-      <c r="K1001" s="11"/>
-      <c r="L1001" s="11"/>
-      <c r="M1001" s="11"/>
-      <c r="N1001" s="11"/>
-      <c r="O1001" s="11"/>
-      <c r="P1001" s="11"/>
-      <c r="Q1001" s="11"/>
-      <c r="R1001" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>

--- a/BangKeHoach-DoAn1-NHH.xlsx
+++ b/BangKeHoach-DoAn1-NHH.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Kế Hoạch" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>DANH SÁCH CÔNG VIỆC</t>
   </si>
@@ -84,16 +79,16 @@
     <t xml:space="preserve"> 23/9/2019</t>
   </si>
   <si>
-    <t>Làm Word báo cáo</t>
+    <t>Làm Word Báo Cáo</t>
   </si>
   <si>
-    <t>Chỉnh sữa hình ảnh, màu sắc</t>
-  </si>
-  <si>
-    <t>hoàn thành</t>
+    <t>Hoàn thành</t>
   </si>
   <si>
     <t>Đang chậm chỉ hoàn thành thiết kế xong Form</t>
+  </si>
+  <si>
+    <t>25/10/2019</t>
   </si>
 </sst>
 </file>
@@ -537,7 +532,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -547,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -722,14 +717,14 @@
         <v>9</v>
       </c>
       <c r="E6" s="5">
-        <v>43741</v>
+        <v>43475</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5">
         <v>43595</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -747,9 +742,6 @@
       <c r="V6" s="6"/>
     </row>
     <row r="7" spans="1:22" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>19</v>
-      </c>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="5"/>
@@ -773,25 +765,16 @@
       <c r="V7" s="6"/>
     </row>
     <row r="8" spans="1:22" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>8</v>
+      <c r="A8" s="14" t="s">
+        <v>19</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5">
-        <v>43742</v>
-      </c>
-      <c r="E8" s="5">
-        <v>43745</v>
-      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5">
-        <v>43748</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -809,23 +792,23 @@
     </row>
     <row r="9" spans="1:22" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="5">
-        <v>43746</v>
+        <v>43740</v>
       </c>
       <c r="E9" s="5">
-        <v>43758</v>
+        <v>43743</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5">
-        <v>43749</v>
+        <v>43626</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -844,20 +827,24 @@
     </row>
     <row r="10" spans="1:22" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="5">
-        <v>43759</v>
+        <v>43744</v>
       </c>
       <c r="E10" s="5">
-        <v>43762</v>
+        <v>43754</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
+      <c r="G10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -881,14 +868,18 @@
         <v>6</v>
       </c>
       <c r="D11" s="5">
-        <v>43763</v>
+        <v>43755</v>
       </c>
       <c r="E11" s="5">
         <v>43766</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
+      <c r="G11" s="5">
+        <v>43749</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -918,8 +909,12 @@
         <v>43768</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
+      <c r="G12" s="5">
+        <v>43784</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
